--- a/quality_assessment_DIB.xlsx
+++ b/quality_assessment_DIB.xlsx
@@ -3,27 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0B2C6A-E6A6-4C9F-866D-D6D392453F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35468D8D-B32C-47DC-80D3-0323F97F09FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$36:$U$36</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$41:$W$41</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$42:$W$42</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -242,18 +228,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +613,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -693,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -758,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -823,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -953,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1148,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1213,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1343,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1408,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1473,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1603,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1668,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1733,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1798,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1863,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1928,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1993,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -2058,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -2123,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -2188,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -2253,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -2318,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -2383,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -2448,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2513,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -2578,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -2643,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -2708,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -2773,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -2858,90 +2843,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B36">
         <f>B35*100/33</f>
         <v>93.939393939393938</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36">
         <f t="shared" ref="C36:U36" si="1">C35*100/33</f>
         <v>96.969696969696969</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36">
         <f t="shared" si="1"/>
         <v>30.303030303030305</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36">
         <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36">
         <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36">
         <f t="shared" si="1"/>
         <v>12.121212121212121</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36">
         <f t="shared" si="1"/>
         <v>63.636363636363633</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36">
         <f t="shared" si="1"/>
         <v>60.606060606060609</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36">
         <f t="shared" si="1"/>
         <v>60.606060606060609</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R36">
         <f t="shared" si="1"/>
         <v>60.606060606060609</v>
       </c>
-      <c r="S36" s="4">
+      <c r="S36">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
       </c>
-      <c r="T36" s="4">
+      <c r="T36">
         <f t="shared" si="1"/>
         <v>57.575757575757578</v>
       </c>
-      <c r="U36" s="4">
+      <c r="U36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
